--- a/TunnelFace.xlsx
+++ b/TunnelFace.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lflessati\surfdrive\01_Lectures TU\SIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lflessati\surfdrive\MonA\TunnelFace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9DAC-DFBF-4E0F-AE89-D047F62FE155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DD233-138C-4F84-9172-4110B2EC603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unreinforced" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +548,10 @@
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="K4" s="4">
         <f>+B23*B20*B8/B15</f>
-        <v>0.87191851973906109</v>
+        <v>1.0364683131651709</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="B20">
         <f>1/3*B15*B4/B7</f>
-        <v>0.12479999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -716,8 +716,8 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <f>+B15/B8</f>
-        <v>6.9333333333333336</v>
+        <f>+(B15)/B8</f>
+        <v>6.24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -726,7 +726,7 @@
       </c>
       <c r="B23">
         <f>+IF(B21&lt;B17,B21,B17*EXP(B21/B17-1))</f>
-        <v>48.439917763281173</v>
+        <v>31.094049394955125</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +743,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" s="2" t="s">

--- a/TunnelFace.xlsx
+++ b/TunnelFace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lflessati\surfdrive\MonA\TunnelFace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DD233-138C-4F84-9172-4110B2EC603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2B68E-831C-483C-8650-975AFAE00B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unreinforced" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E4D07D-BC3A-4162-90D0-B174CFB9D0F9}">
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="K4" s="4">
         <f>+B36*B33*B8/B20</f>
-        <v>0.41014902264142522</v>
+        <v>0.69555723245250878</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="B20">
         <f>+B21*B6*(B5)</f>
-        <v>1226.1756</v>
+        <v>1560</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -927,7 +927,7 @@
       </c>
       <c r="B21">
         <f>+(B9*(B6-9.81)+9.81)/B6</f>
-        <v>0.78600999999999999</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B22">
         <f>+IF(B21&lt;1,0.022+1.54*B21,0.24*B21+1.324)</f>
-        <v>1.2324554000000001</v>
+        <v>1.5640000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -948,7 +948,7 @@
       </c>
       <c r="B23">
         <f>+(B22+B24)/(1+B29)</f>
-        <v>1.628319611704319</v>
+        <v>1.850260196651802</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B33">
         <f>1/3*B20*B4/B7</f>
-        <v>0.19618809600000001</v>
+        <v>0.24959999999999999</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B34">
         <f>+B20/B8</f>
-        <v>5.4496693333333335</v>
+        <v>6.9333333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B36">
         <f>+IF(B34&lt;B23,B34/(1+B29),B23/(1+B29)*EXP(B34/B23-1))</f>
-        <v>11.393028406706255</v>
+        <v>19.32103423479191</v>
       </c>
     </row>
   </sheetData>

--- a/TunnelFace.xlsx
+++ b/TunnelFace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lflessati\surfdrive\MonA\TunnelFace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F2B68E-831C-483C-8650-975AFAE00B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E1B4F-3F41-4180-84F1-1051C15E7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unreinforced" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Input</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sf </t>
+  </si>
+  <si>
+    <t>Final stress on the face (TBM face pressure)</t>
   </si>
 </sst>
 </file>
@@ -548,16 +554,19 @@
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -655,6 +664,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>45</v>
@@ -716,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <f>+(B15)/B8</f>
+        <f>+(B15-B10)/B8</f>
         <v>6.24</v>
       </c>
     </row>
@@ -743,7 +766,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" s="2" t="s">
